--- a/views/financeiro/relatorios/resumo_campanha_66.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_66.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>CAMPANHA 66</t>
   </si>
@@ -29,7 +29,7 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>20/12/2024</t>
+    <t>07/01/2025</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
@@ -38,6 +38,9 @@
     <t>PAGAMENTO PÓS:</t>
   </si>
   <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
     <t>VENDEDOR</t>
   </si>
   <si>
@@ -81,6 +84,12 @@
   </si>
   <si>
     <t>VENDA EM BOLETOS - PRESTIGIO</t>
+  </si>
+  <si>
+    <t>Greicy</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - DAILY</t>
@@ -555,10 +564,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,53 +612,53 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>10194.0</v>
+        <v>7374.0</v>
       </c>
       <c r="D8" s="6">
-        <v>650.0</v>
+        <v>7374.0</v>
       </c>
       <c r="E8" s="6">
-        <v>9544.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.93623700215813</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
-        <v>95.44</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -660,22 +669,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>1000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>4800.0</v>
       </c>
       <c r="E9" s="6">
-        <v>1000.0</v>
+        <v>2700.0</v>
       </c>
       <c r="F9" s="7">
-        <v>1.0</v>
+        <v>0.36</v>
       </c>
       <c r="G9" s="6">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -686,22 +695,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
-        <v>1290.0</v>
+        <v>7497.4</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>7497.4</v>
       </c>
       <c r="E10" s="6">
-        <v>1290.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="6">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -712,22 +721,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>1715.0</v>
+        <v>8840.0</v>
       </c>
       <c r="D11" s="6">
-        <v>1200.0</v>
+        <v>7715.0</v>
       </c>
       <c r="E11" s="6">
-        <v>515.0</v>
+        <v>1125.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.3002915451895</v>
+        <v>0.12726244343891</v>
       </c>
       <c r="G11" s="6">
-        <v>5.15</v>
+        <v>11.25</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -738,508 +747,594 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>700.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>4100.0</v>
       </c>
       <c r="E12" s="6">
-        <v>700.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F12" s="7">
-        <v>1.0</v>
+        <v>0.25454545454545</v>
       </c>
       <c r="G12" s="6">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>1400.0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>14899.0</v>
+        <v>36711.4</v>
       </c>
       <c r="D13" s="9">
-        <v>1850.0</v>
+        <v>31486.4</v>
       </c>
       <c r="E13" s="9">
-        <v>13049.0</v>
+        <v>5225.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.87583059265723</v>
+        <v>0.14232636183856</v>
       </c>
       <c r="G13" s="9">
-        <v>130.49</v>
+        <v>52.25</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>1400.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1000.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>880.59</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>880.59</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>8.8059</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1880.59</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1880.59</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>18.8059</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6">
+        <v>6507.3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5207.3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1300.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.19977563659275</v>
+      </c>
+      <c r="G22" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1300.0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <v>6507.3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5207.3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1300.0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.19977563659275</v>
+      </c>
+      <c r="G23" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1300.0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3257.3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3257.3</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>32.573</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3257.3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3257.3</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>32.573</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6">
-        <v>14899.0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1850.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>13049.0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.87583059265723</v>
-      </c>
-      <c r="G24" s="6">
-        <v>130.49</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
-        <v>3257.3</v>
+        <v>36711.4</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>31486.4</v>
       </c>
       <c r="E26" s="6">
-        <v>3257.3</v>
+        <v>5225.0</v>
       </c>
       <c r="F26" s="7">
+        <v>0.14232636183856</v>
+      </c>
+      <c r="G26" s="6">
+        <v>52.25</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1400.0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1880.59</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1880.59</v>
+      </c>
+      <c r="F27" s="7">
         <v>1.0</v>
       </c>
-      <c r="G26" s="6">
-        <v>32.573</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="9">
-        <v>18156.3</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1850.0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>16306.3</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.89810699316491</v>
-      </c>
-      <c r="G27" s="9">
-        <v>163.063</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.0</v>
+      <c r="G27" s="6">
+        <v>18.8059</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6507.3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5207.3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1300.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.19977563659275</v>
+      </c>
+      <c r="G28" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1300.0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>26.0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45099.29</v>
+      </c>
+      <c r="D29" s="9">
+        <v>36693.7</v>
+      </c>
+      <c r="E29" s="9">
+        <v>8405.59</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.18637965253998</v>
+      </c>
+      <c r="G29" s="9">
+        <v>84.0559</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2700.0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="12">
-        <v>10194.0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>650.0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>9544.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1000.0</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1000.0</v>
+      <c r="D32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12">
-        <v>1290.0</v>
+        <v>7374.0</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>7374.0</v>
       </c>
       <c r="F33" s="12">
-        <v>1290.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="12">
-        <v>1715.0</v>
+        <v>7500.0</v>
       </c>
       <c r="E34" s="13">
-        <v>1200.0</v>
+        <v>4800.0</v>
       </c>
       <c r="F34" s="12">
-        <v>515.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="12">
+        <v>7497.4</v>
+      </c>
+      <c r="E35" s="13">
+        <v>7497.4</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="12">
+        <v>8840.0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>7715.0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1125.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="12">
+        <v>5500.0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>5500.0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1000.0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="12">
+        <v>880.59</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>880.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="12">
-        <v>700.0</v>
-      </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="12">
-        <v>3257.3</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>3257.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="5"/>
-      <c r="C39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="9">
-        <f>sum(D31:D38)</f>
-        <v>18156.3</v>
-      </c>
-      <c r="E39" s="9">
-        <f>sum(E31:E38)</f>
-        <v>1850</v>
-      </c>
-      <c r="F39" s="9">
-        <f>sum(F31:F38)</f>
-        <v>16306.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="D40" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="15">
-        <f>(E39/D39)</f>
-        <v>0.10189300683509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="D41" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="15">
-        <f>(F39/D39)</f>
-        <v>0.89810699316491</v>
+      <c r="D42" s="12">
+        <v>6507.3</v>
+      </c>
+      <c r="E42" s="13">
+        <v>6507.3</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="5"/>
+      <c r="C43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9">
+        <f>sum(D33:D42)</f>
+        <v>45099.29</v>
+      </c>
+      <c r="E43" s="9">
+        <f>sum(E33:E42)</f>
+        <v>39393.7</v>
+      </c>
+      <c r="F43" s="9">
+        <f>sum(F33:F42)</f>
+        <v>5705.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="15">
+        <f>(E43/D43)</f>
+        <v>0.87348825225408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="15">
+        <f>(F43/D43)</f>
+        <v>0.12651174774592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/views/financeiro/relatorios/resumo_campanha_66.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_66.xlsx
@@ -739,10 +739,10 @@
         <v>11.25</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>1125.0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -791,10 +791,10 @@
         <v>52.25</v>
       </c>
       <c r="H13" s="9">
-        <v>1400.0</v>
+        <v>2525.0</v>
       </c>
       <c r="I13" s="9">
-        <v>28.0</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1040,10 +1040,10 @@
         <v>52.25</v>
       </c>
       <c r="H26" s="8">
-        <v>1400.0</v>
+        <v>2525.0</v>
       </c>
       <c r="I26" s="8">
-        <v>28.0</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1118,10 +1118,10 @@
         <v>84.0559</v>
       </c>
       <c r="H29" s="9">
-        <v>2700.0</v>
+        <v>3825.0</v>
       </c>
       <c r="I29" s="9">
-        <v>54.0</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1208,10 +1208,10 @@
         <v>8840.0</v>
       </c>
       <c r="E36" s="13">
-        <v>7715.0</v>
+        <v>8840.0</v>
       </c>
       <c r="F36" s="12">
-        <v>1125.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>39393.7</v>
+        <v>40518.7</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>5705.59</v>
+        <v>4580.59</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.87348825225408</v>
+        <v>0.89843321258494</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.12651174774592</v>
+        <v>0.10156678741506</v>
       </c>
     </row>
   </sheetData>
